--- a/Letter - User Assignment Mapping.xlsx
+++ b/Letter - User Assignment Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ketan Mali\OneDrive - Apnasite IT Services Private Limited\Desktop\letter\letter-assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Code\00 Training Project Assignments\letter-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1987EB5-E049-4DF8-9796-5724D5C9A3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61ED450-8E9F-4E78-BB37-0B7E3FC9BE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="228">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -669,6 +669,57 @@
   </si>
   <si>
     <t>Kolape</t>
+  </si>
+  <si>
+    <t>Dhongde</t>
+  </si>
+  <si>
+    <t>dhongadetrupti2@gmail.com</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>Kandra</t>
+  </si>
+  <si>
+    <t>sheetalkandara785@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjeevani</t>
+  </si>
+  <si>
+    <t>Balure</t>
+  </si>
+  <si>
+    <t>baluresanjeevanee22@gmail.com</t>
+  </si>
+  <si>
+    <t>Mayuri</t>
+  </si>
+  <si>
+    <t>Ragho</t>
+  </si>
+  <si>
+    <t>raghumayuri2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Hemant</t>
+  </si>
+  <si>
+    <t>Kadam</t>
+  </si>
+  <si>
+    <t>kadamhemant642@gmail.com</t>
+  </si>
+  <si>
+    <t>Kishori</t>
+  </si>
+  <si>
+    <t>Mestry</t>
+  </si>
+  <si>
+    <t>kishorimestry1996@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -701,12 +752,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -719,13 +771,13 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -738,19 +790,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -762,7 +814,7 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -784,7 +836,7 @@
       <name val="-Apple-System"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +847,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -943,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,6 +1047,9 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1330,17 +1391,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
@@ -2119,7 +2180,7 @@
         <v>designs/42.jpg</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.5">
+    <row r="44" spans="1:5" ht="15.6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2137,7 +2198,7 @@
         <v>designs/43.jpg</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.5">
+    <row r="45" spans="1:5" ht="15.6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2155,7 +2216,7 @@
         <v>designs/44.jpg</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.5">
+    <row r="46" spans="1:5" ht="15.6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2173,7 +2234,7 @@
         <v>designs/45.jpg</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.5">
+    <row r="47" spans="1:5" ht="15.6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2191,7 +2252,7 @@
         <v>designs/46.jpg</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.5">
+    <row r="48" spans="1:5" ht="15.6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2203,7 +2264,7 @@
         <v>designs/47.jpg</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.5">
+    <row r="49" spans="1:5" ht="15.6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2221,7 +2282,7 @@
         <v>designs/48.jpg</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.5">
+    <row r="50" spans="1:5" ht="15.6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2239,7 +2300,7 @@
         <v>designs/49.jpg</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.5">
+    <row r="51" spans="1:5" ht="15.6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2251,7 +2312,7 @@
         <v>designs/50.jpg</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.5">
+    <row r="52" spans="1:5" ht="15.6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2263,7 +2324,7 @@
         <v>designs/51.jpg</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.5">
+    <row r="53" spans="1:5" ht="15.6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2281,7 +2342,7 @@
         <v>designs/52.jpg</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.5">
+    <row r="54" spans="1:5" ht="15.6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2293,7 +2354,7 @@
         <v>designs/53.jpg</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.5">
+    <row r="55" spans="1:5" ht="15.6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2311,7 +2372,7 @@
         <v>designs/54.jpg</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.5">
+    <row r="56" spans="1:5" ht="15.6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2329,7 +2390,7 @@
         <v>designs/55.jpg</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.5">
+    <row r="57" spans="1:5" ht="15.6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2343,7 +2404,7 @@
         <v>designs/56.jpg</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.5">
+    <row r="58" spans="1:5" ht="15.6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2361,7 +2422,7 @@
         <v>designs/57.jpg</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.5">
+    <row r="59" spans="1:5" ht="15.6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2375,7 +2436,7 @@
         <v>designs/58.jpg</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.5">
+    <row r="60" spans="1:5" ht="15.6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2389,7 +2450,7 @@
         <v>designs/59.jpg</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.5">
+    <row r="61" spans="1:5" ht="15.6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2401,7 +2462,7 @@
         <v>designs/60.jpg</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.5">
+    <row r="62" spans="1:5" ht="15.6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2419,7 +2480,7 @@
         <v>designs/61.jpg</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.5">
+    <row r="63" spans="1:5" ht="15.6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2437,7 +2498,7 @@
         <v>designs/62.jpg</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.5">
+    <row r="64" spans="1:5" ht="15.6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2449,7 +2510,7 @@
         <v>designs/63.jpg</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.5">
+    <row r="65" spans="1:5" ht="15.6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2461,7 +2522,7 @@
         <v>designs/64.jpg</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.5">
+    <row r="66" spans="1:5" ht="15.6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2473,7 +2534,7 @@
         <v>designs/65.jpg</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.5">
+    <row r="67" spans="1:5" ht="15.6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2491,7 +2552,7 @@
         <v>designs/66.jpg</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.5">
+    <row r="68" spans="1:5" ht="15.6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2507,7 +2568,7 @@
         <v>designs/67.jpg</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.5">
+    <row r="69" spans="1:5" ht="15.6">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2523,7 +2584,7 @@
         <v>designs/68.jpg</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.5">
+    <row r="70" spans="1:5" ht="15.6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2539,7 +2600,7 @@
         <v>designs/69.jpg</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.5">
+    <row r="71" spans="1:5" ht="15.6">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2555,7 +2616,7 @@
         <v>designs/70.jpg</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.5">
+    <row r="72" spans="1:5" ht="15.6">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2571,7 +2632,7 @@
         <v>designs/71.jpg</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.5">
+    <row r="73" spans="1:5" ht="15.6">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2589,7 +2650,7 @@
         <v>designs/72.jpg</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.5">
+    <row r="74" spans="1:5" ht="15.6">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2607,7 +2668,7 @@
         <v>designs/73.jpg</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.5">
+    <row r="75" spans="1:5" ht="15.6">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2622,7 +2683,7 @@
         <v>designs/74.jpg</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.5">
+    <row r="76" spans="1:5" ht="15.6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2637,7 +2698,7 @@
         <v>designs/75.jpg</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.5">
+    <row r="77" spans="1:5" ht="15.6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2652,7 +2713,7 @@
         <v>designs/76.jpg</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.5">
+    <row r="78" spans="1:5" ht="15.6">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2667,7 +2728,7 @@
         <v>designs/77.jpg</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.5">
+    <row r="79" spans="1:5" ht="15.6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2682,7 +2743,7 @@
         <v>designs/78.jpg</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.5">
+    <row r="80" spans="1:5" ht="15.6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2697,7 +2758,7 @@
         <v>designs/79.jpg</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.5">
+    <row r="81" spans="1:5" ht="15.6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2712,7 +2773,7 @@
         <v>designs/80.jpg</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.5">
+    <row r="82" spans="1:5" ht="15.6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2727,7 +2788,7 @@
         <v>designs/81.jpg</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.5">
+    <row r="83" spans="1:5" ht="15.6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2742,7 +2803,7 @@
         <v>designs/82.jpg</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.5">
+    <row r="84" spans="1:5" ht="15.6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2757,7 +2818,7 @@
         <v>designs/83.jpg</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.5">
+    <row r="85" spans="1:5" ht="15.6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2772,7 +2833,7 @@
         <v>designs/84.jpg</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.5">
+    <row r="86" spans="1:5" ht="15.6">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2787,7 +2848,7 @@
         <v>designs/85.jpg</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.5">
+    <row r="87" spans="1:5" ht="15.6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2802,7 +2863,7 @@
         <v>designs/86.jpg</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.5">
+    <row r="88" spans="1:5" ht="15.6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2817,7 +2878,7 @@
         <v>designs/87.jpg</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.5">
+    <row r="89" spans="1:5" ht="15.6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2832,7 +2893,7 @@
         <v>designs/88.jpg</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.5">
+    <row r="90" spans="1:5" ht="15.6">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2847,84 +2908,124 @@
         <v>designs/89.jpg</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.5">
+    <row r="91" spans="1:5" ht="15.6">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5"/>
+      <c r="B91" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>212</v>
+      </c>
       <c r="E91" t="str">
         <f t="shared" si="3"/>
         <v>designs/90.jpg</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.5">
+    <row r="92" spans="1:5" ht="15.6">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="16"/>
+      <c r="B92" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>215</v>
+      </c>
       <c r="E92" t="str">
         <f t="shared" si="3"/>
         <v>designs/91.jpg</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.5">
+    <row r="93" spans="1:5" ht="15.6">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
+      <c r="B93" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>218</v>
+      </c>
       <c r="E93" t="str">
         <f t="shared" si="3"/>
         <v>designs/92.jpg</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.5">
+    <row r="94" spans="1:5" ht="15.6">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="16"/>
+      <c r="B94" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>221</v>
+      </c>
       <c r="E94" t="str">
         <f t="shared" si="3"/>
         <v>designs/93.jpg</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.5">
+    <row r="95" spans="1:5" ht="15.6">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5"/>
+      <c r="B95" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>224</v>
+      </c>
       <c r="E95" t="str">
         <f t="shared" si="3"/>
         <v>designs/94.jpg</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.5">
+    <row r="96" spans="1:5" ht="15.6">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="16"/>
+      <c r="B96" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>227</v>
+      </c>
       <c r="E96" t="str">
         <f t="shared" si="3"/>
         <v>designs/95.jpg</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.5">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="5"/>
       <c r="E97" t="str">
         <f t="shared" si="3"/>
         <v>designs/96.jpg</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.5">
+    <row r="98" spans="1:5" ht="15.6">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2935,7 +3036,7 @@
         <v>designs/97.jpg</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.5">
+    <row r="99" spans="1:5" ht="15.6">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2946,7 +3047,7 @@
         <v>designs/98.jpg</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.5">
+    <row r="100" spans="1:5" ht="15.6">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2957,7 +3058,7 @@
         <v>designs/99.jpg</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.5">
+    <row r="101" spans="1:5" ht="15.6">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2968,7 +3069,7 @@
         <v>designs/100.jpg</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.5">
+    <row r="102" spans="1:5" ht="15.6">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2979,7 +3080,7 @@
         <v>designs/101.jpg</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.5">
+    <row r="103" spans="1:5" ht="15.6">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2990,7 +3091,7 @@
         <v>designs/102.jpg</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.5">
+    <row r="104" spans="1:5" ht="15.6">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3001,7 +3102,7 @@
         <v>designs/103.jpg</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.5">
+    <row r="105" spans="1:5" ht="15.6">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3023,7 +3124,7 @@
         <v>designs/105.jpg</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.5">
+    <row r="107" spans="1:5" ht="15.6">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3034,7 +3135,7 @@
         <v>designs/106.jpg</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.5">
+    <row r="108" spans="1:5" ht="15.6">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3045,7 +3146,7 @@
         <v>designs/107.jpg</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.5">
+    <row r="109" spans="1:5" ht="15.6">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3056,7 +3157,7 @@
         <v>designs/108.jpg</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.5">
+    <row r="110" spans="1:5" ht="15.6">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3067,7 +3168,7 @@
         <v>designs/109.jpg</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.5">
+    <row r="111" spans="1:5" ht="15.6">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3078,7 +3179,7 @@
         <v>designs/110.jpg</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.5">
+    <row r="112" spans="1:5" ht="15.6">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3089,7 +3190,7 @@
         <v>designs/111.jpg</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.5">
+    <row r="113" spans="1:5" ht="15.6">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3100,7 +3201,7 @@
         <v>designs/112.jpg</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.5">
+    <row r="114" spans="1:5" ht="15.6">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3111,7 +3212,7 @@
         <v>designs/113.jpg</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.5">
+    <row r="115" spans="1:5" ht="15.6">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3122,7 +3223,7 @@
         <v>designs/114.jpg</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.5">
+    <row r="116" spans="1:5" ht="15.6">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3133,7 +3234,7 @@
         <v>designs/115.jpg</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.5">
+    <row r="117" spans="1:5" ht="15.6">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3144,7 +3245,7 @@
         <v>designs/116.jpg</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.5">
+    <row r="118" spans="1:5" ht="15.6">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3155,7 +3256,7 @@
         <v>designs/117.jpg</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.5">
+    <row r="119" spans="1:5" ht="15.6">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3166,7 +3267,7 @@
         <v>designs/118.jpg</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.5">
+    <row r="120" spans="1:5" ht="15.6">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3177,7 +3278,7 @@
         <v>designs/119.jpg</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.5">
+    <row r="121" spans="1:5" ht="15.6">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3309,7 +3410,7 @@
         <v>designs/131.jpg</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16.5">
+    <row r="133" spans="1:5" ht="15.6">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3320,7 +3421,7 @@
         <v>designs/132.jpg</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.5">
+    <row r="134" spans="1:5" ht="15.6">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3805,10 +3906,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D74" r:id="rId1" xr:uid="{3FA4CA74-2537-4BC9-AE21-6AAA504AAA9F}"/>
+    <hyperlink ref="D91" r:id="rId2" xr:uid="{2ED3DDE3-A644-4988-B9B4-5B6436E82D01}"/>
+    <hyperlink ref="D92" r:id="rId3" xr:uid="{287D20EC-8912-4045-9652-7ED9F4E79755}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>